--- a/Team-Data/2007-08/4-8-2007-08.xlsx
+++ b/Team-Data/2007-08/4-8-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,28 +733,28 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E2" t="n">
         <v>36</v>
       </c>
       <c r="F2" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G2" t="n">
-        <v>0.462</v>
+        <v>0.468</v>
       </c>
       <c r="H2" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I2" t="n">
         <v>36.2</v>
       </c>
       <c r="J2" t="n">
-        <v>79.90000000000001</v>
+        <v>79.7</v>
       </c>
       <c r="K2" t="n">
-        <v>0.453</v>
+        <v>0.454</v>
       </c>
       <c r="L2" t="n">
         <v>4.6</v>
@@ -696,10 +763,10 @@
         <v>13</v>
       </c>
       <c r="N2" t="n">
-        <v>0.356</v>
+        <v>0.358</v>
       </c>
       <c r="O2" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="P2" t="n">
         <v>27.2</v>
@@ -708,16 +775,16 @@
         <v>0.774</v>
       </c>
       <c r="R2" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="S2" t="n">
         <v>30</v>
       </c>
       <c r="T2" t="n">
-        <v>42.3</v>
+        <v>42.2</v>
       </c>
       <c r="U2" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="V2" t="n">
         <v>15</v>
@@ -729,7 +796,7 @@
         <v>5.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Z2" t="n">
         <v>20.6</v>
@@ -741,7 +808,7 @@
         <v>98</v>
       </c>
       <c r="AC2" t="n">
-        <v>-1.6</v>
+        <v>-1.4</v>
       </c>
       <c r="AD2" t="n">
         <v>1</v>
@@ -756,13 +823,13 @@
         <v>18</v>
       </c>
       <c r="AH2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI2" t="n">
         <v>22</v>
       </c>
       <c r="AJ2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK2" t="n">
         <v>16</v>
@@ -786,10 +853,10 @@
         <v>7</v>
       </c>
       <c r="AR2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AT2" t="n">
         <v>10</v>
@@ -798,7 +865,7 @@
         <v>11</v>
       </c>
       <c r="AV2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AW2" t="n">
         <v>15</v>
@@ -807,7 +874,7 @@
         <v>4</v>
       </c>
       <c r="AY2" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AZ2" t="n">
         <v>11</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-8-2007-08</t>
+          <t>2008-04-08</t>
         </is>
       </c>
     </row>
@@ -848,25 +915,25 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E3" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F3" t="n">
         <v>15</v>
       </c>
       <c r="G3" t="n">
-        <v>0.805</v>
+        <v>0.803</v>
       </c>
       <c r="H3" t="n">
-        <v>48.2</v>
+        <v>48.1</v>
       </c>
       <c r="I3" t="n">
         <v>36.4</v>
       </c>
       <c r="J3" t="n">
-        <v>76.5</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="K3" t="n">
         <v>0.475</v>
@@ -878,16 +945,16 @@
         <v>19.1</v>
       </c>
       <c r="N3" t="n">
-        <v>0.376</v>
+        <v>0.377</v>
       </c>
       <c r="O3" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="P3" t="n">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.771</v>
+        <v>0.772</v>
       </c>
       <c r="R3" t="n">
         <v>10.1</v>
@@ -899,13 +966,13 @@
         <v>41.9</v>
       </c>
       <c r="U3" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="V3" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="W3" t="n">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="X3" t="n">
         <v>4.6</v>
@@ -914,19 +981,19 @@
         <v>4.9</v>
       </c>
       <c r="Z3" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="AA3" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="AB3" t="n">
-        <v>100.6</v>
+        <v>100.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>10.5</v>
+        <v>10.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -938,7 +1005,7 @@
         <v>1</v>
       </c>
       <c r="AH3" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AI3" t="n">
         <v>20</v>
@@ -956,10 +1023,10 @@
         <v>13</v>
       </c>
       <c r="AN3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO3" t="n">
         <v>8</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>7</v>
       </c>
       <c r="AP3" t="n">
         <v>8</v>
@@ -971,7 +1038,7 @@
         <v>24</v>
       </c>
       <c r="AS3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AT3" t="n">
         <v>15</v>
@@ -986,19 +1053,19 @@
         <v>5</v>
       </c>
       <c r="AX3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY3" t="n">
         <v>17</v>
       </c>
       <c r="AZ3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BC3" t="n">
         <v>1</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-8-2007-08</t>
+          <t>2008-04-08</t>
         </is>
       </c>
     </row>
@@ -1030,79 +1097,79 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4" t="n">
         <v>48</v>
       </c>
       <c r="G4" t="n">
-        <v>0.385</v>
+        <v>0.377</v>
       </c>
       <c r="H4" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I4" t="n">
-        <v>35.9</v>
+        <v>35.8</v>
       </c>
       <c r="J4" t="n">
-        <v>79.7</v>
+        <v>79.8</v>
       </c>
       <c r="K4" t="n">
-        <v>0.45</v>
+        <v>0.449</v>
       </c>
       <c r="L4" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="M4" t="n">
         <v>17.6</v>
       </c>
       <c r="N4" t="n">
-        <v>0.368</v>
+        <v>0.365</v>
       </c>
       <c r="O4" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="P4" t="n">
-        <v>25.6</v>
+        <v>25.5</v>
       </c>
       <c r="Q4" t="n">
         <v>0.71</v>
       </c>
       <c r="R4" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="S4" t="n">
         <v>29.6</v>
       </c>
       <c r="T4" t="n">
-        <v>40.3</v>
+        <v>40.4</v>
       </c>
       <c r="U4" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="V4" t="n">
         <v>14.7</v>
       </c>
       <c r="W4" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X4" t="n">
         <v>4.8</v>
       </c>
       <c r="Y4" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Z4" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="AA4" t="n">
         <v>21</v>
       </c>
       <c r="AB4" t="n">
-        <v>96.40000000000001</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="AC4" t="n">
         <v>-4.7</v>
@@ -1111,7 +1178,7 @@
         <v>1</v>
       </c>
       <c r="AE4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF4" t="n">
         <v>23</v>
@@ -1120,16 +1187,16 @@
         <v>23</v>
       </c>
       <c r="AH4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ4" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AK4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL4" t="n">
         <v>16</v>
@@ -1144,10 +1211,10 @@
         <v>20</v>
       </c>
       <c r="AP4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AR4" t="n">
         <v>21</v>
@@ -1159,16 +1226,16 @@
         <v>26</v>
       </c>
       <c r="AU4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AV4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AY4" t="n">
         <v>30</v>
@@ -1177,10 +1244,10 @@
         <v>22</v>
       </c>
       <c r="BA4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BB4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BC4" t="n">
         <v>22</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-8-2007-08</t>
+          <t>2008-04-08</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E5" t="n">
         <v>30</v>
       </c>
       <c r="F5" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G5" t="n">
-        <v>0.39</v>
+        <v>0.395</v>
       </c>
       <c r="H5" t="n">
         <v>48.3</v>
@@ -1230,7 +1297,7 @@
         <v>36.2</v>
       </c>
       <c r="J5" t="n">
-        <v>83.7</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="K5" t="n">
         <v>0.432</v>
@@ -1242,7 +1309,7 @@
         <v>15.8</v>
       </c>
       <c r="N5" t="n">
-        <v>0.366</v>
+        <v>0.365</v>
       </c>
       <c r="O5" t="n">
         <v>18.8</v>
@@ -1254,7 +1321,7 @@
         <v>0.754</v>
       </c>
       <c r="R5" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="S5" t="n">
         <v>30</v>
@@ -1263,7 +1330,7 @@
         <v>43.1</v>
       </c>
       <c r="U5" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="V5" t="n">
         <v>14.5</v>
@@ -1281,16 +1348,16 @@
         <v>21.7</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AB5" t="n">
-        <v>96.8</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="AC5" t="n">
         <v>-3</v>
       </c>
       <c r="AD5" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="AE5" t="n">
         <v>22</v>
@@ -1302,7 +1369,7 @@
         <v>22</v>
       </c>
       <c r="AH5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI5" t="n">
         <v>21</v>
@@ -1314,7 +1381,7 @@
         <v>30</v>
       </c>
       <c r="AL5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM5" t="n">
         <v>24</v>
@@ -1323,10 +1390,10 @@
         <v>14</v>
       </c>
       <c r="AO5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AP5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ5" t="n">
         <v>17</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-8-2007-08</t>
+          <t>2008-04-08</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>-0.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="AE6" t="n">
         <v>13</v>
@@ -1508,7 +1575,7 @@
         <v>21</v>
       </c>
       <c r="AP6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ6" t="n">
         <v>28</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-8-2007-08</t>
+          <t>2008-04-08</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1643,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E7" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F7" t="n">
         <v>29</v>
       </c>
       <c r="G7" t="n">
-        <v>0.628</v>
+        <v>0.623</v>
       </c>
       <c r="H7" t="n">
         <v>48.1</v>
@@ -1606,31 +1673,31 @@
         <v>16.9</v>
       </c>
       <c r="N7" t="n">
-        <v>0.35</v>
+        <v>0.349</v>
       </c>
       <c r="O7" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="P7" t="n">
-        <v>25.4</v>
+        <v>25.5</v>
       </c>
       <c r="Q7" t="n">
         <v>0.8120000000000001</v>
       </c>
       <c r="R7" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="S7" t="n">
-        <v>32.4</v>
+        <v>32.3</v>
       </c>
       <c r="T7" t="n">
         <v>43.2</v>
       </c>
       <c r="U7" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="V7" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="W7" t="n">
         <v>6.1</v>
@@ -1642,16 +1709,16 @@
         <v>4.3</v>
       </c>
       <c r="Z7" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="AA7" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AB7" t="n">
-        <v>100.3</v>
+        <v>100.4</v>
       </c>
       <c r="AC7" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -1666,7 +1733,7 @@
         <v>9</v>
       </c>
       <c r="AH7" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AI7" t="n">
         <v>15</v>
@@ -1675,7 +1742,7 @@
         <v>24</v>
       </c>
       <c r="AK7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL7" t="n">
         <v>20</v>
@@ -1687,10 +1754,10 @@
         <v>21</v>
       </c>
       <c r="AO7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ7" t="n">
         <v>2</v>
@@ -1699,37 +1766,37 @@
         <v>20</v>
       </c>
       <c r="AS7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT7" t="n">
         <v>6</v>
       </c>
       <c r="AU7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV7" t="n">
         <v>5</v>
       </c>
       <c r="AW7" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AX7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ7" t="n">
         <v>23</v>
       </c>
       <c r="BA7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BB7" t="n">
         <v>12</v>
       </c>
       <c r="BC7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-8-2007-08</t>
+          <t>2008-04-08</t>
         </is>
       </c>
     </row>
@@ -1758,19 +1825,19 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E8" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F8" t="n">
         <v>31</v>
       </c>
       <c r="G8" t="n">
-        <v>0.603</v>
+        <v>0.597</v>
       </c>
       <c r="H8" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I8" t="n">
         <v>40.3</v>
@@ -1788,10 +1855,10 @@
         <v>19.6</v>
       </c>
       <c r="N8" t="n">
-        <v>0.356</v>
+        <v>0.357</v>
       </c>
       <c r="O8" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="P8" t="n">
         <v>30.6</v>
@@ -1803,10 +1870,10 @@
         <v>11.4</v>
       </c>
       <c r="S8" t="n">
-        <v>32.6</v>
+        <v>32.5</v>
       </c>
       <c r="T8" t="n">
-        <v>44.1</v>
+        <v>43.9</v>
       </c>
       <c r="U8" t="n">
         <v>24.8</v>
@@ -1815,7 +1882,7 @@
         <v>14.7</v>
       </c>
       <c r="W8" t="n">
-        <v>9.199999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="X8" t="n">
         <v>6.7</v>
@@ -1830,10 +1897,10 @@
         <v>23.7</v>
       </c>
       <c r="AB8" t="n">
-        <v>110.7</v>
+        <v>110.6</v>
       </c>
       <c r="AC8" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -1848,7 +1915,7 @@
         <v>11</v>
       </c>
       <c r="AH8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI8" t="n">
         <v>3</v>
@@ -1881,7 +1948,7 @@
         <v>15</v>
       </c>
       <c r="AS8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AT8" t="n">
         <v>5</v>
@@ -1890,7 +1957,7 @@
         <v>3</v>
       </c>
       <c r="AV8" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AW8" t="n">
         <v>1</v>
@@ -1908,7 +1975,7 @@
         <v>1</v>
       </c>
       <c r="BB8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC8" t="n">
         <v>11</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-8-2007-08</t>
+          <t>2008-04-08</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E9" t="n">
         <v>55</v>
       </c>
       <c r="F9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G9" t="n">
-        <v>0.714</v>
+        <v>0.724</v>
       </c>
       <c r="H9" t="n">
         <v>48.1</v>
@@ -1958,19 +2025,19 @@
         <v>36.5</v>
       </c>
       <c r="J9" t="n">
-        <v>79.8</v>
+        <v>79.5</v>
       </c>
       <c r="K9" t="n">
-        <v>0.458</v>
+        <v>0.459</v>
       </c>
       <c r="L9" t="n">
         <v>6</v>
       </c>
       <c r="M9" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="N9" t="n">
-        <v>0.368</v>
+        <v>0.372</v>
       </c>
       <c r="O9" t="n">
         <v>18.5</v>
@@ -1979,34 +2046,34 @@
         <v>24.2</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.764</v>
+        <v>0.765</v>
       </c>
       <c r="R9" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="S9" t="n">
         <v>29.4</v>
       </c>
       <c r="T9" t="n">
-        <v>41.2</v>
+        <v>41.1</v>
       </c>
       <c r="U9" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="V9" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="W9" t="n">
         <v>7.2</v>
       </c>
       <c r="X9" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Y9" t="n">
         <v>3.8</v>
       </c>
       <c r="Z9" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AA9" t="n">
         <v>19.9</v>
@@ -2015,10 +2082,10 @@
         <v>97.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="AE9" t="n">
         <v>2</v>
@@ -2030,13 +2097,13 @@
         <v>2</v>
       </c>
       <c r="AH9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI9" t="n">
         <v>18</v>
       </c>
       <c r="AJ9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK9" t="n">
         <v>13</v>
@@ -2048,16 +2115,16 @@
         <v>22</v>
       </c>
       <c r="AN9" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AO9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AP9" t="n">
         <v>20</v>
       </c>
       <c r="AQ9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR9" t="n">
         <v>11</v>
@@ -2066,7 +2133,7 @@
         <v>25</v>
       </c>
       <c r="AT9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AU9" t="n">
         <v>8</v>
@@ -2081,7 +2148,7 @@
         <v>3</v>
       </c>
       <c r="AY9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ9" t="n">
         <v>12</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-8-2007-08</t>
+          <t>2008-04-08</t>
         </is>
       </c>
     </row>
@@ -2122,16 +2189,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E10" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F10" t="n">
         <v>31</v>
       </c>
       <c r="G10" t="n">
-        <v>0.603</v>
+        <v>0.597</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
@@ -2143,7 +2210,7 @@
         <v>89.8</v>
       </c>
       <c r="K10" t="n">
-        <v>0.461</v>
+        <v>0.46</v>
       </c>
       <c r="L10" t="n">
         <v>9.199999999999999</v>
@@ -2152,31 +2219,31 @@
         <v>26.5</v>
       </c>
       <c r="N10" t="n">
-        <v>0.349</v>
+        <v>0.348</v>
       </c>
       <c r="O10" t="n">
-        <v>18.8</v>
+        <v>18.6</v>
       </c>
       <c r="P10" t="n">
-        <v>25</v>
+        <v>24.6</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.754</v>
+        <v>0.753</v>
       </c>
       <c r="R10" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="S10" t="n">
         <v>30.4</v>
       </c>
       <c r="T10" t="n">
-        <v>43</v>
+        <v>42.9</v>
       </c>
       <c r="U10" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="V10" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="W10" t="n">
         <v>9.1</v>
@@ -2191,13 +2258,13 @@
         <v>22.8</v>
       </c>
       <c r="AA10" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="AB10" t="n">
-        <v>110.8</v>
+        <v>110.4</v>
       </c>
       <c r="AC10" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -2212,7 +2279,7 @@
         <v>11</v>
       </c>
       <c r="AH10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI10" t="n">
         <v>2</v>
@@ -2221,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="AK10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL10" t="n">
         <v>2</v>
@@ -2233,10 +2300,10 @@
         <v>22</v>
       </c>
       <c r="AO10" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AP10" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AQ10" t="n">
         <v>18</v>
@@ -2260,7 +2327,7 @@
         <v>2</v>
       </c>
       <c r="AX10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AY10" t="n">
         <v>21</v>
@@ -2269,10 +2336,10 @@
         <v>27</v>
       </c>
       <c r="BA10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BB10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC10" t="n">
         <v>13</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-8-2007-08</t>
+          <t>2008-04-08</t>
         </is>
       </c>
     </row>
@@ -2382,19 +2449,19 @@
         <v>4.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="AE11" t="n">
         <v>6</v>
       </c>
       <c r="AF11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG11" t="n">
         <v>6</v>
       </c>
       <c r="AH11" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI11" t="n">
         <v>17</v>
@@ -2403,7 +2470,7 @@
         <v>15</v>
       </c>
       <c r="AK11" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL11" t="n">
         <v>11</v>
@@ -2427,13 +2494,13 @@
         <v>8</v>
       </c>
       <c r="AS11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AT11" t="n">
         <v>2</v>
       </c>
       <c r="AU11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV11" t="n">
         <v>9</v>
@@ -2445,7 +2512,7 @@
         <v>7</v>
       </c>
       <c r="AY11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ11" t="n">
         <v>3</v>
@@ -2457,7 +2524,7 @@
         <v>21</v>
       </c>
       <c r="BC11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-8-2007-08</t>
+          <t>2008-04-08</t>
         </is>
       </c>
     </row>
@@ -2486,55 +2553,55 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E12" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F12" t="n">
         <v>44</v>
       </c>
       <c r="G12" t="n">
-        <v>0.436</v>
+        <v>0.429</v>
       </c>
       <c r="H12" t="n">
         <v>48.2</v>
       </c>
       <c r="I12" t="n">
-        <v>37.8</v>
+        <v>37.7</v>
       </c>
       <c r="J12" t="n">
-        <v>85.3</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="K12" t="n">
-        <v>0.443</v>
+        <v>0.442</v>
       </c>
       <c r="L12" t="n">
         <v>9.1</v>
       </c>
       <c r="M12" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="N12" t="n">
-        <v>0.373</v>
+        <v>0.372</v>
       </c>
       <c r="O12" t="n">
         <v>19.1</v>
       </c>
       <c r="P12" t="n">
-        <v>24.9</v>
+        <v>24.8</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.77</v>
+        <v>0.769</v>
       </c>
       <c r="R12" t="n">
         <v>11.2</v>
       </c>
       <c r="S12" t="n">
-        <v>32</v>
+        <v>31.9</v>
       </c>
       <c r="T12" t="n">
-        <v>43.2</v>
+        <v>43.1</v>
       </c>
       <c r="U12" t="n">
         <v>22.5</v>
@@ -2549,19 +2616,19 @@
         <v>4.9</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Z12" t="n">
         <v>23.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="AB12" t="n">
-        <v>103.8</v>
+        <v>103.7</v>
       </c>
       <c r="AC12" t="n">
-        <v>-1.6</v>
+        <v>-1.8</v>
       </c>
       <c r="AD12" t="n">
         <v>1</v>
@@ -2576,7 +2643,7 @@
         <v>20</v>
       </c>
       <c r="AH12" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI12" t="n">
         <v>9</v>
@@ -2585,7 +2652,7 @@
         <v>4</v>
       </c>
       <c r="AK12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL12" t="n">
         <v>3</v>
@@ -2603,7 +2670,7 @@
         <v>16</v>
       </c>
       <c r="AQ12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR12" t="n">
         <v>17</v>
@@ -2612,7 +2679,7 @@
         <v>8</v>
       </c>
       <c r="AT12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AU12" t="n">
         <v>7</v>
@@ -2621,13 +2688,13 @@
         <v>26</v>
       </c>
       <c r="AW12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY12" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AZ12" t="n">
         <v>29</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-8-2007-08</t>
+          <t>2008-04-08</t>
         </is>
       </c>
     </row>
@@ -2668,25 +2735,25 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E13" t="n">
         <v>23</v>
       </c>
       <c r="F13" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G13" t="n">
-        <v>0.295</v>
+        <v>0.299</v>
       </c>
       <c r="H13" t="n">
         <v>48.3</v>
       </c>
       <c r="I13" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="J13" t="n">
-        <v>78.59999999999999</v>
+        <v>78.5</v>
       </c>
       <c r="K13" t="n">
         <v>0.439</v>
@@ -2695,7 +2762,7 @@
         <v>4.2</v>
       </c>
       <c r="M13" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="N13" t="n">
         <v>0.324</v>
@@ -2707,7 +2774,7 @@
         <v>26.6</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.783</v>
+        <v>0.784</v>
       </c>
       <c r="R13" t="n">
         <v>9.699999999999999</v>
@@ -2719,19 +2786,19 @@
         <v>39.9</v>
       </c>
       <c r="U13" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="V13" t="n">
         <v>14.4</v>
       </c>
       <c r="W13" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="X13" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="Y13" t="n">
         <v>4.8</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>4.7</v>
       </c>
       <c r="Z13" t="n">
         <v>21.4</v>
@@ -2740,10 +2807,10 @@
         <v>21.8</v>
       </c>
       <c r="AB13" t="n">
-        <v>94</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="AC13" t="n">
-        <v>-6.7</v>
+        <v>-6.5</v>
       </c>
       <c r="AD13" t="n">
         <v>1</v>
@@ -2758,7 +2825,7 @@
         <v>25</v>
       </c>
       <c r="AH13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI13" t="n">
         <v>29</v>
@@ -2767,7 +2834,7 @@
         <v>26</v>
       </c>
       <c r="AK13" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL13" t="n">
         <v>28</v>
@@ -2785,7 +2852,7 @@
         <v>9</v>
       </c>
       <c r="AQ13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AR13" t="n">
         <v>25</v>
@@ -2800,13 +2867,13 @@
         <v>18</v>
       </c>
       <c r="AV13" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AW13" t="n">
         <v>19</v>
       </c>
       <c r="AX13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY13" t="n">
         <v>15</v>
@@ -2821,7 +2888,7 @@
         <v>29</v>
       </c>
       <c r="BC13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-8-2007-08</t>
+          <t>2008-04-08</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E14" t="n">
         <v>53</v>
       </c>
       <c r="F14" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G14" t="n">
-        <v>0.679</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="H14" t="n">
         <v>48.3</v>
@@ -2880,7 +2947,7 @@
         <v>21.1</v>
       </c>
       <c r="N14" t="n">
-        <v>0.378</v>
+        <v>0.379</v>
       </c>
       <c r="O14" t="n">
         <v>21.3</v>
@@ -2889,16 +2956,16 @@
         <v>27.7</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.768</v>
+        <v>0.767</v>
       </c>
       <c r="R14" t="n">
         <v>10.9</v>
       </c>
       <c r="S14" t="n">
-        <v>33.1</v>
+        <v>33.2</v>
       </c>
       <c r="T14" t="n">
-        <v>44.1</v>
+        <v>44.2</v>
       </c>
       <c r="U14" t="n">
         <v>24.3</v>
@@ -2907,16 +2974,16 @@
         <v>14.2</v>
       </c>
       <c r="W14" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="X14" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Y14" t="n">
         <v>4.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="AA14" t="n">
         <v>22.6</v>
@@ -2925,7 +2992,7 @@
         <v>108.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -2934,13 +3001,13 @@
         <v>4</v>
       </c>
       <c r="AF14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH14" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI14" t="n">
         <v>5</v>
@@ -2958,7 +3025,7 @@
         <v>6</v>
       </c>
       <c r="AN14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO14" t="n">
         <v>4</v>
@@ -2991,10 +3058,10 @@
         <v>5</v>
       </c>
       <c r="AY14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA14" t="n">
         <v>5</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-8-2007-08</t>
+          <t>2008-04-08</t>
         </is>
       </c>
     </row>
@@ -3032,28 +3099,28 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E15" t="n">
         <v>21</v>
       </c>
       <c r="F15" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G15" t="n">
-        <v>0.269</v>
+        <v>0.273</v>
       </c>
       <c r="H15" t="n">
         <v>48.3</v>
       </c>
       <c r="I15" t="n">
-        <v>37.3</v>
+        <v>37.2</v>
       </c>
       <c r="J15" t="n">
-        <v>81.8</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K15" t="n">
-        <v>0.456</v>
+        <v>0.455</v>
       </c>
       <c r="L15" t="n">
         <v>7.5</v>
@@ -3062,13 +3129,13 @@
         <v>21.4</v>
       </c>
       <c r="N15" t="n">
-        <v>0.353</v>
+        <v>0.35</v>
       </c>
       <c r="O15" t="n">
         <v>18.5</v>
       </c>
       <c r="P15" t="n">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
       <c r="Q15" t="n">
         <v>0.73</v>
@@ -3077,10 +3144,10 @@
         <v>10.2</v>
       </c>
       <c r="S15" t="n">
-        <v>31.2</v>
+        <v>31.3</v>
       </c>
       <c r="T15" t="n">
-        <v>41.4</v>
+        <v>41.5</v>
       </c>
       <c r="U15" t="n">
         <v>19.1</v>
@@ -3104,25 +3171,25 @@
         <v>22.4</v>
       </c>
       <c r="AB15" t="n">
-        <v>100.7</v>
+        <v>100.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.1</v>
+        <v>-6</v>
       </c>
       <c r="AD15" t="n">
         <v>1</v>
       </c>
       <c r="AE15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AH15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI15" t="n">
         <v>10</v>
@@ -3131,7 +3198,7 @@
         <v>13</v>
       </c>
       <c r="AK15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL15" t="n">
         <v>7</v>
@@ -3140,10 +3207,10 @@
         <v>5</v>
       </c>
       <c r="AN15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO15" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP15" t="n">
         <v>14</v>
@@ -3158,7 +3225,7 @@
         <v>11</v>
       </c>
       <c r="AT15" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AU15" t="n">
         <v>29</v>
@@ -3179,10 +3246,10 @@
         <v>4</v>
       </c>
       <c r="BA15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BB15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC15" t="n">
         <v>24</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-8-2007-08</t>
+          <t>2008-04-08</t>
         </is>
       </c>
     </row>
@@ -3214,16 +3281,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F16" t="n">
         <v>64</v>
       </c>
       <c r="G16" t="n">
-        <v>0.179</v>
+        <v>0.169</v>
       </c>
       <c r="H16" t="n">
         <v>48.4</v>
@@ -3232,28 +3299,28 @@
         <v>34.3</v>
       </c>
       <c r="J16" t="n">
-        <v>77</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="K16" t="n">
         <v>0.445</v>
       </c>
       <c r="L16" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="M16" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="N16" t="n">
         <v>0.356</v>
       </c>
       <c r="O16" t="n">
-        <v>17.1</v>
+        <v>17.2</v>
       </c>
       <c r="P16" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.725</v>
+        <v>0.724</v>
       </c>
       <c r="R16" t="n">
         <v>9</v>
@@ -3283,13 +3350,13 @@
         <v>20.3</v>
       </c>
       <c r="AA16" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AB16" t="n">
-        <v>91.5</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="AC16" t="n">
-        <v>-8.9</v>
+        <v>-9.1</v>
       </c>
       <c r="AD16" t="n">
         <v>1</v>
@@ -3304,7 +3371,7 @@
         <v>30</v>
       </c>
       <c r="AH16" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI16" t="n">
         <v>30</v>
@@ -3313,10 +3380,10 @@
         <v>29</v>
       </c>
       <c r="AK16" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL16" t="n">
         <v>23</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>22</v>
       </c>
       <c r="AM16" t="n">
         <v>21</v>
@@ -3331,7 +3398,7 @@
         <v>23</v>
       </c>
       <c r="AQ16" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AR16" t="n">
         <v>29</v>
@@ -3346,7 +3413,7 @@
         <v>25</v>
       </c>
       <c r="AV16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW16" t="n">
         <v>17</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-8-2007-08</t>
+          <t>2008-04-08</t>
         </is>
       </c>
     </row>
@@ -3396,46 +3463,46 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E17" t="n">
         <v>26</v>
       </c>
       <c r="F17" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G17" t="n">
-        <v>0.338</v>
+        <v>0.342</v>
       </c>
       <c r="H17" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="I17" t="n">
-        <v>36.7</v>
+        <v>36.8</v>
       </c>
       <c r="J17" t="n">
-        <v>82.2</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K17" t="n">
-        <v>0.447</v>
+        <v>0.448</v>
       </c>
       <c r="L17" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="M17" t="n">
         <v>16</v>
       </c>
       <c r="N17" t="n">
-        <v>0.34</v>
+        <v>0.338</v>
       </c>
       <c r="O17" t="n">
-        <v>17.7</v>
+        <v>17.6</v>
       </c>
       <c r="P17" t="n">
-        <v>24.1</v>
+        <v>23.9</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.736</v>
+        <v>0.735</v>
       </c>
       <c r="R17" t="n">
         <v>12.8</v>
@@ -3450,10 +3517,10 @@
         <v>21.2</v>
       </c>
       <c r="V17" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="W17" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="X17" t="n">
         <v>4.5</v>
@@ -3462,19 +3529,19 @@
         <v>5</v>
       </c>
       <c r="Z17" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="AB17" t="n">
-        <v>96.7</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="AC17" t="n">
         <v>-6.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="AE17" t="n">
         <v>24</v>
@@ -3486,7 +3553,7 @@
         <v>24</v>
       </c>
       <c r="AH17" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AI17" t="n">
         <v>16</v>
@@ -3510,7 +3577,7 @@
         <v>22</v>
       </c>
       <c r="AP17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ17" t="n">
         <v>20</v>
@@ -3525,10 +3592,10 @@
         <v>17</v>
       </c>
       <c r="AU17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AV17" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AW17" t="n">
         <v>21</v>
@@ -3537,13 +3604,13 @@
         <v>20</v>
       </c>
       <c r="AY17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ17" t="n">
         <v>20</v>
       </c>
       <c r="BA17" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BB17" t="n">
         <v>22</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-8-2007-08</t>
+          <t>2008-04-08</t>
         </is>
       </c>
     </row>
@@ -3578,28 +3645,28 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E18" t="n">
         <v>19</v>
       </c>
       <c r="F18" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G18" t="n">
-        <v>0.247</v>
+        <v>0.25</v>
       </c>
       <c r="H18" t="n">
         <v>48.1</v>
       </c>
       <c r="I18" t="n">
-        <v>37.3</v>
+        <v>37.1</v>
       </c>
       <c r="J18" t="n">
-        <v>82.8</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="K18" t="n">
-        <v>0.45</v>
+        <v>0.449</v>
       </c>
       <c r="L18" t="n">
         <v>5.2</v>
@@ -3608,7 +3675,7 @@
         <v>15.3</v>
       </c>
       <c r="N18" t="n">
-        <v>0.342</v>
+        <v>0.343</v>
       </c>
       <c r="O18" t="n">
         <v>15.3</v>
@@ -3617,13 +3684,13 @@
         <v>20.8</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.736</v>
+        <v>0.735</v>
       </c>
       <c r="R18" t="n">
         <v>11.6</v>
       </c>
       <c r="S18" t="n">
-        <v>29.4</v>
+        <v>29.5</v>
       </c>
       <c r="T18" t="n">
         <v>41.1</v>
@@ -3641,22 +3708,22 @@
         <v>3.7</v>
       </c>
       <c r="Y18" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Z18" t="n">
         <v>23</v>
       </c>
       <c r="AA18" t="n">
-        <v>17.5</v>
+        <v>17.6</v>
       </c>
       <c r="AB18" t="n">
-        <v>95.09999999999999</v>
+        <v>94.8</v>
       </c>
       <c r="AC18" t="n">
-        <v>-6.9</v>
+        <v>-7</v>
       </c>
       <c r="AD18" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="AE18" t="n">
         <v>28</v>
@@ -3671,13 +3738,13 @@
         <v>29</v>
       </c>
       <c r="AI18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ18" t="n">
         <v>9</v>
       </c>
       <c r="AK18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL18" t="n">
         <v>25</v>
@@ -3710,10 +3777,10 @@
         <v>26</v>
       </c>
       <c r="AV18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AW18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX18" t="n">
         <v>29</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-8-2007-08</t>
+          <t>2008-04-08</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-4.8</v>
       </c>
       <c r="AD19" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="AE19" t="n">
         <v>21</v>
@@ -3850,7 +3917,7 @@
         <v>21</v>
       </c>
       <c r="AH19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI19" t="n">
         <v>28</v>
@@ -3859,10 +3926,10 @@
         <v>25</v>
       </c>
       <c r="AK19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AM19" t="n">
         <v>18</v>
@@ -3886,13 +3953,13 @@
         <v>13</v>
       </c>
       <c r="AT19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU19" t="n">
         <v>6</v>
       </c>
       <c r="AV19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW19" t="n">
         <v>24</v>
@@ -3904,10 +3971,10 @@
         <v>10</v>
       </c>
       <c r="AZ19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BA19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB19" t="n">
         <v>25</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-8-2007-08</t>
+          <t>2008-04-08</t>
         </is>
       </c>
     </row>
@@ -3942,61 +4009,61 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E20" t="n">
         <v>54</v>
       </c>
       <c r="F20" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G20" t="n">
-        <v>0.701</v>
+        <v>0.711</v>
       </c>
       <c r="H20" t="n">
         <v>48.3</v>
       </c>
       <c r="I20" t="n">
-        <v>38.5</v>
+        <v>38.6</v>
       </c>
       <c r="J20" t="n">
-        <v>82.8</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K20" t="n">
-        <v>0.464</v>
+        <v>0.466</v>
       </c>
       <c r="L20" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="M20" t="n">
         <v>19.8</v>
       </c>
       <c r="N20" t="n">
-        <v>0.391</v>
+        <v>0.393</v>
       </c>
       <c r="O20" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="P20" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.769</v>
+        <v>0.77</v>
       </c>
       <c r="R20" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="S20" t="n">
-        <v>30.4</v>
+        <v>30.5</v>
       </c>
       <c r="T20" t="n">
         <v>42</v>
       </c>
       <c r="U20" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="V20" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="W20" t="n">
         <v>7.7</v>
@@ -4008,19 +4075,19 @@
         <v>4.1</v>
       </c>
       <c r="Z20" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="AA20" t="n">
         <v>19.2</v>
       </c>
       <c r="AB20" t="n">
-        <v>100.5</v>
+        <v>101</v>
       </c>
       <c r="AC20" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="AD20" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="AE20" t="n">
         <v>3</v>
@@ -4032,16 +4099,16 @@
         <v>3</v>
       </c>
       <c r="AH20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI20" t="n">
         <v>6</v>
       </c>
       <c r="AJ20" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK20" t="n">
         <v>8</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>9</v>
       </c>
       <c r="AL20" t="n">
         <v>6</v>
@@ -4059,10 +4126,10 @@
         <v>29</v>
       </c>
       <c r="AQ20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS20" t="n">
         <v>15</v>
@@ -4077,7 +4144,7 @@
         <v>3</v>
       </c>
       <c r="AW20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX20" t="n">
         <v>28</v>
@@ -4092,7 +4159,7 @@
         <v>28</v>
       </c>
       <c r="BB20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BC20" t="n">
         <v>5</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-8-2007-08</t>
+          <t>2008-04-08</t>
         </is>
       </c>
     </row>
@@ -4124,28 +4191,28 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F21" t="n">
         <v>56</v>
       </c>
       <c r="G21" t="n">
-        <v>0.282</v>
+        <v>0.273</v>
       </c>
       <c r="H21" t="n">
         <v>48.5</v>
       </c>
       <c r="I21" t="n">
-        <v>35.9</v>
+        <v>35.8</v>
       </c>
       <c r="J21" t="n">
         <v>81.8</v>
       </c>
       <c r="K21" t="n">
-        <v>0.439</v>
+        <v>0.438</v>
       </c>
       <c r="L21" t="n">
         <v>5.8</v>
@@ -4157,19 +4224,19 @@
         <v>0.335</v>
       </c>
       <c r="O21" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="P21" t="n">
-        <v>25.9</v>
+        <v>26.1</v>
       </c>
       <c r="Q21" t="n">
         <v>0.725</v>
       </c>
       <c r="R21" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="S21" t="n">
-        <v>29.9</v>
+        <v>29.8</v>
       </c>
       <c r="T21" t="n">
         <v>42.2</v>
@@ -4178,7 +4245,7 @@
         <v>18.6</v>
       </c>
       <c r="V21" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="W21" t="n">
         <v>6.3</v>
@@ -4187,19 +4254,19 @@
         <v>2.6</v>
       </c>
       <c r="Y21" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Z21" t="n">
         <v>21.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AB21" t="n">
         <v>96.40000000000001</v>
       </c>
       <c r="AC21" t="n">
-        <v>-6.6</v>
+        <v>-6.8</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
@@ -4223,7 +4290,7 @@
         <v>14</v>
       </c>
       <c r="AK21" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL21" t="n">
         <v>21</v>
@@ -4232,22 +4299,22 @@
         <v>16</v>
       </c>
       <c r="AN21" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AO21" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP21" t="n">
         <v>11</v>
       </c>
       <c r="AQ21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AR21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AS21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT21" t="n">
         <v>11</v>
@@ -4256,16 +4323,16 @@
         <v>30</v>
       </c>
       <c r="AV21" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AW21" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
       </c>
       <c r="AY21" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AZ21" t="n">
         <v>19</v>
@@ -4274,10 +4341,10 @@
         <v>19</v>
       </c>
       <c r="BB21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BC21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-8-2007-08</t>
+          <t>2008-04-08</t>
         </is>
       </c>
     </row>
@@ -4384,16 +4451,16 @@
         <v>4.7</v>
       </c>
       <c r="AD22" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="AE22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF22" t="n">
         <v>9</v>
       </c>
       <c r="AG22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH22" t="n">
         <v>18</v>
@@ -4402,7 +4469,7 @@
         <v>13</v>
       </c>
       <c r="AJ22" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AK22" t="n">
         <v>5</v>
@@ -4423,13 +4490,13 @@
         <v>3</v>
       </c>
       <c r="AQ22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AR22" t="n">
         <v>28</v>
       </c>
       <c r="AS22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT22" t="n">
         <v>14</v>
@@ -4438,16 +4505,16 @@
         <v>22</v>
       </c>
       <c r="AV22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AW22" t="n">
         <v>27</v>
       </c>
       <c r="AX22" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AY22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ22" t="n">
         <v>15</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-8-2007-08</t>
+          <t>2008-04-08</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>0.8</v>
       </c>
       <c r="AD23" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="AE23" t="n">
         <v>15</v>
@@ -4581,13 +4648,13 @@
         <v>22</v>
       </c>
       <c r="AI23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ23" t="n">
         <v>17</v>
       </c>
       <c r="AK23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL23" t="n">
         <v>30</v>
@@ -4599,13 +4666,13 @@
         <v>30</v>
       </c>
       <c r="AO23" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP23" t="n">
         <v>10</v>
       </c>
       <c r="AQ23" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AR23" t="n">
         <v>3</v>
@@ -4620,7 +4687,7 @@
         <v>23</v>
       </c>
       <c r="AV23" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW23" t="n">
         <v>4</v>
@@ -4629,13 +4696,13 @@
         <v>9</v>
       </c>
       <c r="AY23" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ23" t="n">
         <v>7</v>
       </c>
       <c r="BA23" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BB23" t="n">
         <v>20</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-8-2007-08</t>
+          <t>2008-04-08</t>
         </is>
       </c>
     </row>
@@ -4670,25 +4737,25 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E24" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F24" t="n">
         <v>26</v>
       </c>
       <c r="G24" t="n">
-        <v>0.667</v>
+        <v>0.662</v>
       </c>
       <c r="H24" t="n">
         <v>48.3</v>
       </c>
       <c r="I24" t="n">
-        <v>41.5</v>
+        <v>41.4</v>
       </c>
       <c r="J24" t="n">
-        <v>83</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K24" t="n">
         <v>0.5</v>
@@ -4703,22 +4770,22 @@
         <v>0.394</v>
       </c>
       <c r="O24" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="P24" t="n">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.785</v>
+        <v>0.783</v>
       </c>
       <c r="R24" t="n">
         <v>8.699999999999999</v>
       </c>
       <c r="S24" t="n">
-        <v>32.5</v>
+        <v>32.6</v>
       </c>
       <c r="T24" t="n">
-        <v>41.2</v>
+        <v>41.3</v>
       </c>
       <c r="U24" t="n">
         <v>26.9</v>
@@ -4730,7 +4797,7 @@
         <v>6.6</v>
       </c>
       <c r="X24" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="Y24" t="n">
         <v>3.8</v>
@@ -4742,16 +4809,16 @@
         <v>21.1</v>
       </c>
       <c r="AB24" t="n">
-        <v>110.5</v>
+        <v>110.3</v>
       </c>
       <c r="AC24" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="AD24" t="n">
         <v>1</v>
       </c>
       <c r="AE24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF24" t="n">
         <v>7</v>
@@ -4760,13 +4827,13 @@
         <v>7</v>
       </c>
       <c r="AH24" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI24" t="n">
         <v>1</v>
       </c>
       <c r="AJ24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK24" t="n">
         <v>1</v>
@@ -4781,28 +4848,28 @@
         <v>1</v>
       </c>
       <c r="AO24" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR24" t="n">
         <v>30</v>
       </c>
       <c r="AS24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AT24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AU24" t="n">
         <v>1</v>
       </c>
       <c r="AV24" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AW24" t="n">
         <v>22</v>
@@ -4811,7 +4878,7 @@
         <v>2</v>
       </c>
       <c r="AY24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AZ24" t="n">
         <v>9</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-8-2007-08</t>
+          <t>2008-04-08</t>
         </is>
       </c>
     </row>
@@ -4852,28 +4919,28 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E25" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F25" t="n">
         <v>39</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5</v>
+        <v>0.494</v>
       </c>
       <c r="H25" t="n">
         <v>48.6</v>
       </c>
       <c r="I25" t="n">
-        <v>35.6</v>
+        <v>35.5</v>
       </c>
       <c r="J25" t="n">
-        <v>79.7</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="K25" t="n">
-        <v>0.447</v>
+        <v>0.446</v>
       </c>
       <c r="L25" t="n">
         <v>6.5</v>
@@ -4882,16 +4949,16 @@
         <v>17.3</v>
       </c>
       <c r="N25" t="n">
-        <v>0.377</v>
+        <v>0.376</v>
       </c>
       <c r="O25" t="n">
         <v>17.4</v>
       </c>
       <c r="P25" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.771</v>
+        <v>0.77</v>
       </c>
       <c r="R25" t="n">
         <v>11</v>
@@ -4903,7 +4970,7 @@
         <v>40.8</v>
       </c>
       <c r="U25" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="V25" t="n">
         <v>13.1</v>
@@ -4912,28 +4979,28 @@
         <v>5.5</v>
       </c>
       <c r="X25" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="Z25" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="AA25" t="n">
         <v>20.3</v>
       </c>
       <c r="AB25" t="n">
-        <v>95.2</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="AC25" t="n">
-        <v>-1</v>
+        <v>-1.1</v>
       </c>
       <c r="AD25" t="n">
         <v>1</v>
       </c>
       <c r="AE25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF25" t="n">
         <v>16</v>
@@ -4942,16 +5009,16 @@
         <v>16</v>
       </c>
       <c r="AH25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI25" t="n">
         <v>27</v>
       </c>
       <c r="AJ25" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK25" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL25" t="n">
         <v>15</v>
@@ -4960,7 +5027,7 @@
         <v>17</v>
       </c>
       <c r="AN25" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO25" t="n">
         <v>24</v>
@@ -4978,7 +5045,7 @@
         <v>22</v>
       </c>
       <c r="AT25" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AU25" t="n">
         <v>19</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-8-2007-08</t>
+          <t>2008-04-08</t>
         </is>
       </c>
     </row>
@@ -5034,55 +5101,55 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E26" t="n">
         <v>36</v>
       </c>
       <c r="F26" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G26" t="n">
-        <v>0.462</v>
+        <v>0.468</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="J26" t="n">
-        <v>80</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="K26" t="n">
-        <v>0.462</v>
+        <v>0.461</v>
       </c>
       <c r="L26" t="n">
         <v>6.3</v>
       </c>
       <c r="M26" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="N26" t="n">
-        <v>0.372</v>
+        <v>0.371</v>
       </c>
       <c r="O26" t="n">
-        <v>22.5</v>
+        <v>22.3</v>
       </c>
       <c r="P26" t="n">
-        <v>28.1</v>
+        <v>27.9</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.799</v>
+        <v>0.798</v>
       </c>
       <c r="R26" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="S26" t="n">
-        <v>29.9</v>
+        <v>30</v>
       </c>
       <c r="T26" t="n">
-        <v>40.1</v>
+        <v>40.3</v>
       </c>
       <c r="U26" t="n">
         <v>19.1</v>
@@ -5097,19 +5164,19 @@
         <v>4.1</v>
       </c>
       <c r="Y26" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="AA26" t="n">
         <v>23.2</v>
       </c>
       <c r="AB26" t="n">
-        <v>102.7</v>
+        <v>102.3</v>
       </c>
       <c r="AC26" t="n">
-        <v>-2.3</v>
+        <v>-2.2</v>
       </c>
       <c r="AD26" t="n">
         <v>1</v>
@@ -5124,7 +5191,7 @@
         <v>18</v>
       </c>
       <c r="AH26" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI26" t="n">
         <v>14</v>
@@ -5142,7 +5209,7 @@
         <v>20</v>
       </c>
       <c r="AN26" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AO26" t="n">
         <v>2</v>
@@ -5157,7 +5224,7 @@
         <v>22</v>
       </c>
       <c r="AS26" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AT26" t="n">
         <v>27</v>
@@ -5172,7 +5239,7 @@
         <v>7</v>
       </c>
       <c r="AX26" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AY26" t="n">
         <v>27</v>
@@ -5181,7 +5248,7 @@
         <v>24</v>
       </c>
       <c r="BA26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB26" t="n">
         <v>8</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-8-2007-08</t>
+          <t>2008-04-08</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>4.9</v>
       </c>
       <c r="AD27" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="AE27" t="n">
         <v>4</v>
@@ -5306,7 +5373,7 @@
         <v>4</v>
       </c>
       <c r="AH27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI27" t="n">
         <v>26</v>
@@ -5315,7 +5382,7 @@
         <v>28</v>
       </c>
       <c r="AK27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL27" t="n">
         <v>8</v>
@@ -5333,7 +5400,7 @@
         <v>27</v>
       </c>
       <c r="AQ27" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR27" t="n">
         <v>26</v>
@@ -5342,10 +5409,10 @@
         <v>9</v>
       </c>
       <c r="AT27" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU27" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV27" t="n">
         <v>4</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-8-2007-08</t>
+          <t>2008-04-08</t>
         </is>
       </c>
     </row>
@@ -5398,40 +5465,40 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E28" t="n">
         <v>18</v>
       </c>
       <c r="F28" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G28" t="n">
-        <v>0.231</v>
+        <v>0.234</v>
       </c>
       <c r="H28" t="n">
         <v>48.4</v>
       </c>
       <c r="I28" t="n">
-        <v>38.1</v>
+        <v>38.2</v>
       </c>
       <c r="J28" t="n">
         <v>85.59999999999999</v>
       </c>
       <c r="K28" t="n">
-        <v>0.445</v>
+        <v>0.446</v>
       </c>
       <c r="L28" t="n">
         <v>3.9</v>
       </c>
       <c r="M28" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="N28" t="n">
-        <v>0.334</v>
+        <v>0.336</v>
       </c>
       <c r="O28" t="n">
-        <v>17.6</v>
+        <v>17.5</v>
       </c>
       <c r="P28" t="n">
         <v>22.8</v>
@@ -5440,7 +5507,7 @@
         <v>0.77</v>
       </c>
       <c r="R28" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="S28" t="n">
         <v>32.6</v>
@@ -5452,7 +5519,7 @@
         <v>21.4</v>
       </c>
       <c r="V28" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="W28" t="n">
         <v>6.4</v>
@@ -5470,10 +5537,10 @@
         <v>19.8</v>
       </c>
       <c r="AB28" t="n">
-        <v>97.7</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="AC28" t="n">
-        <v>-8.800000000000001</v>
+        <v>-8.699999999999999</v>
       </c>
       <c r="AD28" t="n">
         <v>1</v>
@@ -5488,7 +5555,7 @@
         <v>29</v>
       </c>
       <c r="AH28" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI28" t="n">
         <v>8</v>
@@ -5497,7 +5564,7 @@
         <v>3</v>
       </c>
       <c r="AK28" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL28" t="n">
         <v>29</v>
@@ -5506,7 +5573,7 @@
         <v>29</v>
       </c>
       <c r="AN28" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO28" t="n">
         <v>23</v>
@@ -5527,7 +5594,7 @@
         <v>1</v>
       </c>
       <c r="AU28" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV28" t="n">
         <v>30</v>
@@ -5536,7 +5603,7 @@
         <v>23</v>
       </c>
       <c r="AX28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY28" t="n">
         <v>26</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-8-2007-08</t>
+          <t>2008-04-08</t>
         </is>
       </c>
     </row>
@@ -5658,16 +5725,16 @@
         <v>2.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="AE29" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF29" t="n">
         <v>16</v>
       </c>
       <c r="AG29" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH29" t="n">
         <v>8</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-8-2007-08</t>
+          <t>2008-04-08</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E30" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F30" t="n">
         <v>26</v>
       </c>
       <c r="G30" t="n">
-        <v>0.667</v>
+        <v>0.662</v>
       </c>
       <c r="H30" t="n">
         <v>48.1</v>
@@ -5780,10 +5847,10 @@
         <v>40.1</v>
       </c>
       <c r="J30" t="n">
-        <v>80.3</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="K30" t="n">
-        <v>0.498</v>
+        <v>0.499</v>
       </c>
       <c r="L30" t="n">
         <v>5</v>
@@ -5792,13 +5859,13 @@
         <v>13.2</v>
       </c>
       <c r="N30" t="n">
-        <v>0.377</v>
+        <v>0.38</v>
       </c>
       <c r="O30" t="n">
-        <v>21.4</v>
+        <v>21.6</v>
       </c>
       <c r="P30" t="n">
-        <v>28.2</v>
+        <v>28.5</v>
       </c>
       <c r="Q30" t="n">
         <v>0.758</v>
@@ -5807,19 +5874,19 @@
         <v>11.5</v>
       </c>
       <c r="S30" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="T30" t="n">
-        <v>40.8</v>
+        <v>40.7</v>
       </c>
       <c r="U30" t="n">
         <v>26.5</v>
       </c>
       <c r="V30" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="W30" t="n">
-        <v>8.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X30" t="n">
         <v>4.3</v>
@@ -5831,19 +5898,19 @@
         <v>24.1</v>
       </c>
       <c r="AA30" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="AB30" t="n">
-        <v>106.5</v>
+        <v>106.9</v>
       </c>
       <c r="AC30" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
       </c>
       <c r="AE30" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF30" t="n">
         <v>7</v>
@@ -5870,7 +5937,7 @@
         <v>26</v>
       </c>
       <c r="AN30" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AO30" t="n">
         <v>3</v>
@@ -5882,19 +5949,19 @@
         <v>16</v>
       </c>
       <c r="AR30" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AS30" t="n">
         <v>27</v>
       </c>
       <c r="AT30" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AU30" t="n">
         <v>2</v>
       </c>
       <c r="AV30" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AW30" t="n">
         <v>3</v>
@@ -5903,13 +5970,13 @@
         <v>23</v>
       </c>
       <c r="AY30" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AZ30" t="n">
         <v>30</v>
       </c>
       <c r="BA30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB30" t="n">
         <v>5</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-8-2007-08</t>
+          <t>2008-04-08</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-0.2</v>
       </c>
       <c r="AD31" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="AE31" t="n">
         <v>14</v>
@@ -6043,7 +6110,7 @@
         <v>16</v>
       </c>
       <c r="AK31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL31" t="n">
         <v>14</v>
@@ -6052,7 +6119,7 @@
         <v>11</v>
       </c>
       <c r="AN31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO31" t="n">
         <v>11</v>
@@ -6070,7 +6137,7 @@
         <v>26</v>
       </c>
       <c r="AT31" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU31" t="n">
         <v>27</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-8-2007-08</t>
+          <t>2008-04-08</t>
         </is>
       </c>
     </row>
